--- a/Kanji Storage.xlsx
+++ b/Kanji Storage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Japanese Dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DF69A3-A887-4A8D-8C2B-962E9ADF6C90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E2C7F0-A835-4374-A595-FD34D6A159F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4755" yWindow="16080" windowWidth="19440" windowHeight="10590" xr2:uid="{D6FF4FC2-0135-406D-A64E-1610F306DCDF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="1078">
   <si>
     <t>上</t>
   </si>
@@ -44,9 +44,6 @@
     <t>direction</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>達</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>learning</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>酒</t>
   </si>
   <si>
@@ -3243,6 +3237,36 @@
   </si>
   <si>
     <t>in_mind_map</t>
+  </si>
+  <si>
+    <t>gate</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>2 branch tree</t>
+  </si>
+  <si>
+    <t>legs</t>
+  </si>
+  <si>
+    <t>2 verticals</t>
+  </si>
+  <si>
+    <t>4 section mouth</t>
+  </si>
+  <si>
+    <t>left sun</t>
+  </si>
+  <si>
+    <t>motion</t>
+  </si>
+  <si>
+    <t>mound</t>
+  </si>
+  <si>
+    <t>inline sun</t>
   </si>
 </sst>
 </file>
@@ -3359,9 +3383,6 @@
   <dxfs count="16">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color theme="0"/>
@@ -3475,6 +3496,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color theme="0"/>
@@ -3551,7 +3575,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{633B4983-3B99-4E13-9602-1E4CABEE47FD}" name="Table1" displayName="Table1" ref="A1:N229" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:N229" xr:uid="{25F29FBE-ABB6-4380-96BD-BE546B0CE362}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M229">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N229">
     <sortCondition ref="B1:B229"/>
   </sortState>
   <tableColumns count="14">
@@ -3559,16 +3583,16 @@
     <tableColumn id="2" xr3:uid="{6E49ECA7-86CD-4DF2-A24C-3243D929FC6A}" name="translation" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{E6299135-A5E6-431B-865D-7697B8E4266D}" name="on-yomi" dataDxfId="11"/>
     <tableColumn id="15" xr3:uid="{06640E40-716A-46A9-A94E-78E77116ABC7}" name="kun-yomi" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{83B9AC6C-FDBE-4F4B-B9E2-AD3BE2208073}" name="yomi" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{8004B9C8-1A88-4E00-963C-33AC78F1CFF2}" name="usage" dataDxfId="9"/>
-    <tableColumn id="25" xr3:uid="{A004070D-77EF-46DC-802D-52AFE4348C2B}" name="category" dataDxfId="8"/>
-    <tableColumn id="29" xr3:uid="{15AA405A-97C7-4F20-8D27-E9A03061157B}" name="t_rating" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{68A340A2-8D0B-4FAB-A173-2B095BFE664C}" name="r_rating" dataDxfId="6"/>
-    <tableColumn id="30" xr3:uid="{D17AECCA-73B2-4FCB-8AD5-E2609A3AC181}" name="w_similarity" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{40C68742-F67A-4B1C-8275-2BA18E2A584D}" name="t_similarity" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{4107F67B-B28F-40AD-B8FB-726E8E957859}" name="r_similarity" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{668F0058-B15D-4906-80FA-75F1F0E9B625}" name="in_mind_map" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{0C0B97B8-1D0F-4E52-B99F-8939C1923429}" name="notes" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{83B9AC6C-FDBE-4F4B-B9E2-AD3BE2208073}" name="yomi" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{8004B9C8-1A88-4E00-963C-33AC78F1CFF2}" name="usage" dataDxfId="8"/>
+    <tableColumn id="25" xr3:uid="{A004070D-77EF-46DC-802D-52AFE4348C2B}" name="category" dataDxfId="7"/>
+    <tableColumn id="29" xr3:uid="{15AA405A-97C7-4F20-8D27-E9A03061157B}" name="t_rating" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{68A340A2-8D0B-4FAB-A173-2B095BFE664C}" name="r_rating" dataDxfId="5"/>
+    <tableColumn id="30" xr3:uid="{D17AECCA-73B2-4FCB-8AD5-E2609A3AC181}" name="w_similarity" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{40C68742-F67A-4B1C-8275-2BA18E2A584D}" name="t_similarity" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{4107F67B-B28F-40AD-B8FB-726E8E957859}" name="r_similarity" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{668F0058-B15D-4906-80FA-75F1F0E9B625}" name="in_mind_map" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{0C0B97B8-1D0F-4E52-B99F-8939C1923429}" name="notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3873,8 +3897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF80FB1D-2E71-48B9-B9D5-5987A57EBCD1}">
   <dimension ref="A1:N229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3895,46 +3919,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>840</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>838</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>839</v>
-      </c>
       <c r="H1" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>835</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3945,13 +3969,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>2</v>
@@ -3964,64 +3988,64 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
-        <v>3</v>
+      <c r="M2" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="4">
         <v>3</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="6">
-        <v>14</v>
+      <c r="J3" s="6" t="s">
+        <v>1075</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6" t="s">
-        <v>7</v>
+      <c r="M3" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4" s="4">
         <v>3</v>
@@ -4030,26 +4054,26 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
-        <v>7</v>
+      <c r="M4" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="3"/>
@@ -4060,64 +4084,64 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
-        <v>7</v>
+      <c r="M5" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" s="4">
         <v>3</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="6">
-        <v>9</v>
+      <c r="J6" s="6" t="s">
+        <v>1070</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
-        <v>7</v>
+      <c r="M6" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7" s="4">
         <v>5</v>
@@ -4126,60 +4150,60 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
-        <v>7</v>
+      <c r="M7" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4">
         <v>4</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="6">
-        <v>10</v>
+      <c r="J8" s="6" t="s">
+        <v>1071</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
-        <v>3</v>
+      <c r="M8" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="3"/>
@@ -4187,34 +4211,34 @@
         <v>2</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="6">
-        <v>10</v>
+      <c r="J9" s="6" t="s">
+        <v>1071</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
-        <v>7</v>
+      <c r="M9" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
@@ -4224,28 +4248,28 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
-        <v>3</v>
+      <c r="M10" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>2</v>
@@ -4258,30 +4282,30 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
-        <v>3</v>
+      <c r="M11" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12" s="4">
         <v>5</v>
@@ -4290,98 +4314,98 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
-        <v>3</v>
+      <c r="M12" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H13" s="4">
         <v>5</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="6">
-        <v>7</v>
+      <c r="J13" s="6" t="s">
+        <v>434</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
-        <v>3</v>
+      <c r="M13" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="6">
-        <v>11</v>
+      <c r="J14" s="6" t="s">
+        <v>1072</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
-        <v>3</v>
+      <c r="M14" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="4">
         <v>2</v>
@@ -4390,26 +4414,26 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
-        <v>7</v>
+      <c r="M15" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="3"/>
@@ -4420,29 +4444,29 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="6" t="s">
-        <v>7</v>
+      <c r="M16" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>855</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="4">
@@ -4452,60 +4476,60 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
-        <v>7</v>
+      <c r="M17" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18" s="4">
         <v>4</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="6">
-        <v>11</v>
+      <c r="J18" s="6" t="s">
+        <v>1072</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
-        <v>7</v>
+      <c r="M18" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>2</v>
@@ -4518,64 +4542,64 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="6" t="s">
-        <v>7</v>
+      <c r="M19" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H20" s="4">
         <v>5</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="6">
-        <v>3</v>
+      <c r="J20" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="6" t="s">
-        <v>3</v>
+      <c r="M20" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H21" s="4">
         <v>4</v>
@@ -4584,30 +4608,30 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
-        <v>7</v>
+      <c r="M21" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
@@ -4616,98 +4640,98 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="6" t="s">
-        <v>7</v>
+      <c r="M22" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4">
         <v>2</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="6">
-        <v>1</v>
+      <c r="J23" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="6" t="s">
-        <v>3</v>
+      <c r="M23" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H24" s="4">
         <v>4</v>
       </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="6">
-        <v>1</v>
+      <c r="J24" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="6" t="s">
-        <v>7</v>
+      <c r="M24" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N24" s="5"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H25" s="4">
         <v>4</v>
@@ -4716,30 +4740,30 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="6" t="s">
-        <v>7</v>
+      <c r="M25" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N25" s="5"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H26" s="4">
         <v>5</v>
@@ -4748,30 +4772,30 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="6" t="s">
-        <v>7</v>
+      <c r="M26" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N26" s="5"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H27" s="4">
         <v>3</v>
@@ -4780,29 +4804,29 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="6" t="s">
-        <v>7</v>
+      <c r="M27" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="4">
@@ -4812,26 +4836,26 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="6" t="s">
-        <v>3</v>
+      <c r="M28" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="3"/>
@@ -4842,30 +4866,30 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="6" t="s">
-        <v>7</v>
+      <c r="M29" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H30" s="4">
         <v>1</v>
@@ -4874,30 +4898,30 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="6" t="s">
-        <v>3</v>
+      <c r="M30" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N30" s="5"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H31" s="4">
         <v>3</v>
@@ -4906,26 +4930,26 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="6" t="s">
-        <v>7</v>
+      <c r="M31" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N31" s="5"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="3"/>
@@ -4936,30 +4960,30 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="6" t="s">
-        <v>3</v>
+      <c r="M32" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H33" s="4">
         <v>1</v>
@@ -4968,30 +4992,30 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="6" t="s">
-        <v>7</v>
+      <c r="M33" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H34" s="4">
         <v>5</v>
@@ -5000,30 +5024,30 @@
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="6" t="s">
-        <v>3</v>
+      <c r="M34" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H35" s="4">
         <v>2</v>
@@ -5032,28 +5056,28 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="6" t="s">
-        <v>3</v>
+      <c r="M35" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="3"/>
@@ -5064,26 +5088,26 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="6" t="s">
-        <v>3</v>
+      <c r="M36" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="3"/>
@@ -5094,26 +5118,26 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="6" t="s">
-        <v>7</v>
+      <c r="M37" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="3"/>
@@ -5124,26 +5148,26 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="6" t="s">
-        <v>7</v>
+      <c r="M38" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>2</v>
@@ -5156,100 +5180,100 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="6" t="s">
-        <v>3</v>
+      <c r="M39" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="4">
         <v>2</v>
       </c>
       <c r="I40" s="6"/>
-      <c r="J40" s="6">
-        <v>14</v>
+      <c r="J40" s="6" t="s">
+        <v>1075</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="6" t="s">
-        <v>7</v>
+      <c r="M40" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H41" s="4">
         <v>5</v>
       </c>
       <c r="I41" s="6"/>
-      <c r="J41" s="6">
-        <v>5</v>
+      <c r="J41" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="6" t="s">
-        <v>7</v>
+      <c r="M41" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H42" s="4">
         <v>1</v>
@@ -5258,30 +5282,30 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="6" t="s">
-        <v>3</v>
+      <c r="M42" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H43" s="4">
         <v>4</v>
@@ -5290,63 +5314,63 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="6" t="s">
-        <v>3</v>
+      <c r="M43" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N43" s="5"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H44" s="4">
         <v>5</v>
       </c>
       <c r="I44" s="6"/>
-      <c r="J44" s="6">
-        <v>6</v>
+      <c r="J44" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="6" t="s">
-        <v>7</v>
+      <c r="M44" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="4">
@@ -5356,26 +5380,26 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="6" t="s">
-        <v>7</v>
+      <c r="M45" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>2</v>
@@ -5385,34 +5409,34 @@
         <v>2</v>
       </c>
       <c r="I46" s="6"/>
-      <c r="J46" s="6">
-        <v>3</v>
+      <c r="J46" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="6" t="s">
-        <v>7</v>
+      <c r="M46" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N46" s="5"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="4">
@@ -5422,30 +5446,30 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="6" t="s">
-        <v>3</v>
+      <c r="M47" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N47" s="5"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H48" s="4">
         <v>3</v>
@@ -5454,29 +5478,29 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="6" t="s">
-        <v>7</v>
+      <c r="M48" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N48" s="5"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="4">
@@ -5486,32 +5510,32 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="6" t="s">
-        <v>7</v>
+      <c r="M49" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H50" s="4">
         <v>3</v>
@@ -5520,30 +5544,30 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="6" t="s">
-        <v>7</v>
+      <c r="M50" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N50" s="5"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H51" s="4">
         <v>3</v>
@@ -5552,30 +5576,30 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="6" t="s">
-        <v>7</v>
+      <c r="M51" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N51" s="5"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H52" s="4">
         <v>5</v>
@@ -5584,26 +5608,26 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="6" t="s">
-        <v>3</v>
+      <c r="M52" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N52" s="5"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="3"/>
@@ -5614,26 +5638,26 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-      <c r="M53" s="6" t="s">
-        <v>3</v>
+      <c r="M53" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N53" s="5"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="3"/>
@@ -5644,26 +5668,26 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="6" t="s">
-        <v>3</v>
+      <c r="M54" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N54" s="5"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="3"/>
@@ -5674,26 +5698,26 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="6" t="s">
-        <v>7</v>
+      <c r="M55" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N55" s="5"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="3"/>
@@ -5704,29 +5728,29 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
-      <c r="M56" s="6" t="s">
-        <v>7</v>
+      <c r="M56" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N56" s="5"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="4">
@@ -5736,63 +5760,63 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="6" t="s">
-        <v>7</v>
+      <c r="M57" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N57" s="5"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="4">
         <v>5</v>
       </c>
       <c r="I58" s="6"/>
-      <c r="J58" s="6">
-        <v>2</v>
+      <c r="J58" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="6" t="s">
-        <v>3</v>
+      <c r="M58" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N58" s="5"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="4">
@@ -5802,26 +5826,26 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="6" t="s">
-        <v>3</v>
+      <c r="M59" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N59" s="5"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="3"/>
@@ -5832,64 +5856,64 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="6" t="s">
-        <v>7</v>
+      <c r="M60" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N60" s="5"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H61" s="4">
         <v>5</v>
       </c>
       <c r="I61" s="6"/>
-      <c r="J61" s="6">
-        <v>6</v>
+      <c r="J61" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="6" t="s">
-        <v>7</v>
+      <c r="M61" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N61" s="5"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H62" s="4">
         <v>3</v>
@@ -5898,29 +5922,29 @@
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="6" t="s">
-        <v>7</v>
+      <c r="M62" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N62" s="5"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="4">
@@ -5930,30 +5954,30 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="6" t="s">
-        <v>7</v>
+      <c r="M63" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N63" s="5"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H64" s="4">
         <v>5</v>
@@ -5962,26 +5986,26 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
-      <c r="M64" s="6" t="s">
-        <v>3</v>
+      <c r="M64" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N64" s="5"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="3"/>
@@ -5992,30 +6016,30 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="6" t="s">
-        <v>7</v>
+      <c r="M65" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N65" s="5"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H66" s="4">
         <v>5</v>
@@ -6024,29 +6048,29 @@
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="6" t="s">
-        <v>3</v>
+      <c r="M66" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N66" s="5"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="4">
@@ -6056,26 +6080,26 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="6" t="s">
-        <v>7</v>
+      <c r="M67" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N67" s="5"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="3"/>
@@ -6086,30 +6110,30 @@
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
-      <c r="M68" s="6" t="s">
-        <v>3</v>
+      <c r="M68" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N68" s="5"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H69" s="4">
         <v>5</v>
@@ -6118,26 +6142,26 @@
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="6" t="s">
-        <v>3</v>
+      <c r="M69" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N69" s="5"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="3"/>
@@ -6148,56 +6172,60 @@
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="M70" s="6" t="s">
-        <v>3</v>
+      <c r="M70" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N70" s="5"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="4"/>
+      <c r="H71" s="4">
+        <v>3</v>
+      </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
+      <c r="M71" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="N71" s="5"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H72" s="4">
         <v>4</v>
@@ -6206,29 +6234,29 @@
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
-      <c r="M72" s="6" t="s">
-        <v>7</v>
+      <c r="M72" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N72" s="5"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="4">
@@ -6238,31 +6266,31 @@
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
-      <c r="M73" s="6" t="s">
-        <v>7</v>
+      <c r="M73" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="4">
@@ -6272,97 +6300,97 @@
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
-      <c r="M74" s="6" t="s">
-        <v>3</v>
+      <c r="M74" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N74" s="5"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H75" s="4">
         <v>4</v>
       </c>
       <c r="I75" s="6"/>
-      <c r="J75" s="6">
-        <v>8</v>
+      <c r="J75" s="6" t="s">
+        <v>1069</v>
       </c>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
-      <c r="M75" s="6" t="s">
-        <v>3</v>
+      <c r="M75" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N75" s="5"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H76" s="4">
         <v>3</v>
       </c>
       <c r="I76" s="6"/>
-      <c r="J76" s="6">
-        <v>3</v>
+      <c r="J76" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
-      <c r="M76" s="6" t="s">
-        <v>3</v>
+      <c r="M76" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N76" s="5"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="4">
@@ -6372,30 +6400,30 @@
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
-      <c r="M77" s="6" t="s">
-        <v>3</v>
+      <c r="M77" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N77" s="5"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H78" s="4">
         <v>5</v>
@@ -6404,30 +6432,30 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="6" t="s">
-        <v>3</v>
+      <c r="M78" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N78" s="5"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H79" s="4">
         <v>2</v>
@@ -6436,29 +6464,29 @@
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="6" t="s">
-        <v>3</v>
+      <c r="M79" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N79" s="5"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="4">
@@ -6468,30 +6496,30 @@
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
-      <c r="M80" s="6" t="s">
-        <v>3</v>
+      <c r="M80" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N80" s="5"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H81" s="4">
         <v>2</v>
@@ -6500,64 +6528,64 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
-      <c r="M81" s="6" t="s">
-        <v>7</v>
+      <c r="M81" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N81" s="5"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="4">
         <v>5</v>
       </c>
       <c r="I82" s="6"/>
-      <c r="J82" s="6">
-        <v>4</v>
+      <c r="J82" s="6" t="s">
+        <v>1068</v>
       </c>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
-      <c r="M82" s="6" t="s">
-        <v>3</v>
+      <c r="M82" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N82" s="5"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H83" s="4">
         <v>2</v>
@@ -6566,30 +6594,30 @@
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
-      <c r="M83" s="6" t="s">
-        <v>7</v>
+      <c r="M83" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N83" s="5"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H84" s="4">
         <v>2</v>
@@ -6598,30 +6626,30 @@
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
-      <c r="M84" s="6" t="s">
-        <v>7</v>
+      <c r="M84" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N84" s="5"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H85" s="4">
         <v>2</v>
@@ -6630,64 +6658,64 @@
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
-      <c r="M85" s="6" t="s">
-        <v>7</v>
+      <c r="M85" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N85" s="5"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="4">
         <v>5</v>
       </c>
       <c r="I86" s="6"/>
-      <c r="J86" s="6">
-        <v>13</v>
+      <c r="J86" s="6" t="s">
+        <v>1074</v>
       </c>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
-      <c r="M86" s="6" t="s">
-        <v>7</v>
+      <c r="M86" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N86" s="5"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H87" s="4">
         <v>4</v>
@@ -6696,29 +6724,29 @@
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="6" t="s">
-        <v>3</v>
+      <c r="M87" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N87" s="5"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="4">
@@ -6728,64 +6756,64 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
-      <c r="M88" s="6" t="s">
-        <v>7</v>
+      <c r="M88" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N88" s="5"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H89" s="4">
         <v>5</v>
       </c>
       <c r="I89" s="6"/>
-      <c r="J89" s="6">
-        <v>9</v>
+      <c r="J89" s="6" t="s">
+        <v>1070</v>
       </c>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
-      <c r="M89" s="6" t="s">
-        <v>7</v>
+      <c r="M89" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N89" s="5"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H90" s="4">
         <v>1</v>
@@ -6794,29 +6822,29 @@
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
-      <c r="M90" s="6" t="s">
-        <v>3</v>
+      <c r="M90" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N90" s="5"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="4">
@@ -6826,29 +6854,29 @@
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
-      <c r="M91" s="6" t="s">
-        <v>3</v>
+      <c r="M91" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N91" s="5"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="4">
@@ -6858,60 +6886,60 @@
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
-      <c r="M92" s="6" t="s">
-        <v>7</v>
+      <c r="M92" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N92" s="5"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H93" s="4">
         <v>5</v>
       </c>
       <c r="I93" s="6"/>
-      <c r="J93" s="6">
-        <v>15</v>
+      <c r="J93" s="6" t="s">
+        <v>1076</v>
       </c>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
-      <c r="M93" s="6" t="s">
-        <v>7</v>
+      <c r="M93" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N93" s="5"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="3"/>
@@ -6919,35 +6947,35 @@
         <v>4</v>
       </c>
       <c r="I94" s="6"/>
-      <c r="J94" s="6">
-        <v>4</v>
+      <c r="J94" s="6" t="s">
+        <v>1068</v>
       </c>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
-      <c r="M94" s="6" t="s">
-        <v>7</v>
+      <c r="M94" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N94" s="5"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H95" s="4">
         <v>1</v>
@@ -6956,30 +6984,30 @@
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
-      <c r="M95" s="6" t="s">
-        <v>7</v>
+      <c r="M95" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N95" s="5"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H96" s="4">
         <v>1</v>
@@ -6988,132 +7016,132 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="6" t="s">
-        <v>3</v>
+      <c r="M96" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N96" s="5"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="4">
         <v>5</v>
       </c>
       <c r="I97" s="6"/>
-      <c r="J97" s="6">
-        <v>5</v>
+      <c r="J97" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
-      <c r="M97" s="6" t="s">
-        <v>3</v>
+      <c r="M97" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N97" s="5"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="4">
         <v>3</v>
       </c>
       <c r="I98" s="6"/>
-      <c r="J98" s="6">
-        <v>14</v>
+      <c r="J98" s="6" t="s">
+        <v>1075</v>
       </c>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
-      <c r="M98" s="6" t="s">
-        <v>7</v>
+      <c r="M98" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N98" s="5"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F99" s="7"/>
       <c r="G99" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H99" s="4">
         <v>4</v>
       </c>
       <c r="I99" s="6"/>
-      <c r="J99" s="6">
-        <v>11</v>
+      <c r="J99" s="6" t="s">
+        <v>1072</v>
       </c>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
-      <c r="M99" s="6" t="s">
-        <v>3</v>
+      <c r="M99" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N99" s="5"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H100" s="4">
         <v>1</v>
@@ -7122,30 +7150,30 @@
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
-      <c r="M100" s="6" t="s">
-        <v>3</v>
+      <c r="M100" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N100" s="5"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H101" s="4">
         <v>4</v>
@@ -7154,26 +7182,26 @@
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
-      <c r="M101" s="6" t="s">
-        <v>3</v>
+      <c r="M101" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N101" s="5"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>2</v>
@@ -7183,35 +7211,35 @@
         <v>2</v>
       </c>
       <c r="I102" s="6"/>
-      <c r="J102" s="6">
-        <v>8</v>
+      <c r="J102" s="6" t="s">
+        <v>1069</v>
       </c>
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
-      <c r="M102" s="6" t="s">
-        <v>7</v>
+      <c r="M102" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N102" s="5"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F103" s="7"/>
       <c r="G103" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H103" s="4">
         <v>2</v>
@@ -7220,30 +7248,30 @@
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
-      <c r="M103" s="6" t="s">
-        <v>7</v>
+      <c r="M103" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N103" s="5"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H104" s="4">
         <v>5</v>
@@ -7252,31 +7280,31 @@
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
-      <c r="M104" s="6" t="s">
-        <v>3</v>
+      <c r="M104" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="4">
@@ -7286,31 +7314,31 @@
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
-      <c r="M105" s="6" t="s">
-        <v>3</v>
+      <c r="M105" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="4">
@@ -7320,29 +7348,29 @@
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
-      <c r="M106" s="6" t="s">
-        <v>3</v>
+      <c r="M106" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N106" s="5"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="4">
@@ -7352,30 +7380,30 @@
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
-      <c r="M107" s="6" t="s">
-        <v>7</v>
+      <c r="M107" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N107" s="5"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H108" s="4">
         <v>4</v>
@@ -7384,26 +7412,26 @@
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
-      <c r="M108" s="6" t="s">
-        <v>7</v>
+      <c r="M108" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N108" s="5"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F109" s="7"/>
       <c r="G109" s="3"/>
@@ -7414,30 +7442,30 @@
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
-      <c r="M109" s="6" t="s">
-        <v>7</v>
+      <c r="M109" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N109" s="5"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F110" s="7"/>
       <c r="G110" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H110" s="4">
         <v>1</v>
@@ -7446,26 +7474,26 @@
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
-      <c r="M110" s="6" t="s">
-        <v>3</v>
+      <c r="M110" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N110" s="5"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F111" s="7"/>
       <c r="G111" s="3"/>
@@ -7476,30 +7504,30 @@
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
-      <c r="M111" s="6" t="s">
-        <v>3</v>
+      <c r="M111" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N111" s="5"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F112" s="7"/>
       <c r="G112" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H112" s="4">
         <v>5</v>
@@ -7508,30 +7536,30 @@
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
-      <c r="M112" s="6" t="s">
-        <v>3</v>
+      <c r="M112" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N112" s="5"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F113" s="7"/>
       <c r="G113" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H113" s="4">
         <v>1</v>
@@ -7540,30 +7568,30 @@
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
-      <c r="M113" s="6" t="s">
-        <v>3</v>
+      <c r="M113" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N113" s="5"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F114" s="7"/>
       <c r="G114" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H114" s="4">
         <v>2</v>
@@ -7572,29 +7600,29 @@
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
-      <c r="M114" s="6" t="s">
-        <v>3</v>
+      <c r="M114" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N114" s="5"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="4">
@@ -7604,29 +7632,29 @@
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
-      <c r="M115" s="6" t="s">
-        <v>7</v>
+      <c r="M115" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N115" s="5"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="4">
@@ -7636,64 +7664,64 @@
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
-      <c r="M116" s="6" t="s">
-        <v>7</v>
+      <c r="M116" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N116" s="5"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H117" s="4">
         <v>1</v>
       </c>
       <c r="I117" s="6"/>
-      <c r="J117" s="6">
-        <v>15</v>
+      <c r="J117" s="6" t="s">
+        <v>1076</v>
       </c>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
-      <c r="M117" s="6" t="s">
-        <v>7</v>
+      <c r="M117" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N117" s="5"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F118" s="7"/>
       <c r="G118" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H118" s="4">
         <v>5</v>
@@ -7702,30 +7730,30 @@
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
-      <c r="M118" s="6" t="s">
-        <v>3</v>
+      <c r="M118" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N118" s="5"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F119" s="7"/>
       <c r="G119" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H119" s="4">
         <v>5</v>
@@ -7734,29 +7762,29 @@
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
-      <c r="M119" s="6" t="s">
-        <v>3</v>
+      <c r="M119" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N119" s="5"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="4">
@@ -7766,30 +7794,30 @@
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
-      <c r="M120" s="6" t="s">
-        <v>3</v>
+      <c r="M120" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N120" s="5"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F121" s="7"/>
       <c r="G121" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H121" s="4">
         <v>3</v>
@@ -7798,30 +7826,30 @@
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
-      <c r="M121" s="6" t="s">
-        <v>7</v>
+      <c r="M121" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N121" s="5"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F122" s="7"/>
       <c r="G122" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H122" s="4">
         <v>4</v>
@@ -7830,30 +7858,30 @@
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
-      <c r="M122" s="6" t="s">
-        <v>3</v>
+      <c r="M122" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N122" s="5"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F123" s="7"/>
       <c r="G123" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H123" s="4">
         <v>4</v>
@@ -7862,30 +7890,30 @@
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
-      <c r="M123" s="6" t="s">
-        <v>7</v>
+      <c r="M123" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N123" s="5"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F124" s="7"/>
       <c r="G124" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H124" s="4">
         <v>2</v>
@@ -7894,30 +7922,30 @@
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
-      <c r="M124" s="6" t="s">
-        <v>3</v>
+      <c r="M124" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N124" s="5"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F125" s="7"/>
       <c r="G125" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H125" s="4">
         <v>5</v>
@@ -7926,29 +7954,29 @@
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
-      <c r="M125" s="6" t="s">
-        <v>3</v>
+      <c r="M125" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N125" s="5"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="4">
@@ -7958,30 +7986,30 @@
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
-      <c r="M126" s="6" t="s">
-        <v>3</v>
+      <c r="M126" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N126" s="5"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F127" s="7"/>
       <c r="G127" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H127" s="4">
         <v>2</v>
@@ -7990,29 +8018,29 @@
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
-      <c r="M127" s="6" t="s">
-        <v>7</v>
+      <c r="M127" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N127" s="5"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="4">
@@ -8022,63 +8050,63 @@
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
-      <c r="M128" s="6" t="s">
-        <v>3</v>
+      <c r="M128" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N128" s="5"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="4">
         <v>5</v>
       </c>
       <c r="I129" s="6"/>
-      <c r="J129" s="6">
-        <v>13</v>
+      <c r="J129" s="6" t="s">
+        <v>1074</v>
       </c>
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
-      <c r="M129" s="6" t="s">
-        <v>3</v>
+      <c r="M129" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N129" s="5"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="4">
@@ -8088,29 +8116,29 @@
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
-      <c r="M130" s="6" t="s">
-        <v>7</v>
+      <c r="M130" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N130" s="5"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="4">
@@ -8120,26 +8148,26 @@
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
-      <c r="M131" s="6" t="s">
-        <v>3</v>
+      <c r="M131" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N131" s="5"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>2</v>
@@ -8152,29 +8180,29 @@
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
-      <c r="M132" s="6" t="s">
-        <v>3</v>
+      <c r="M132" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N132" s="5"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="4">
@@ -8184,29 +8212,29 @@
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
-      <c r="M133" s="6" t="s">
-        <v>3</v>
+      <c r="M133" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N133" s="5"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="4">
@@ -8216,29 +8244,29 @@
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
-      <c r="M134" s="6" t="s">
-        <v>3</v>
+      <c r="M134" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N134" s="5"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="4">
@@ -8248,29 +8276,29 @@
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
-      <c r="M135" s="6" t="s">
-        <v>7</v>
+      <c r="M135" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N135" s="5"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="4">
@@ -8280,30 +8308,30 @@
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
-      <c r="M136" s="6" t="s">
-        <v>3</v>
+      <c r="M136" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N136" s="5"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H137" s="4">
         <v>3</v>
@@ -8312,30 +8340,30 @@
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
-      <c r="M137" s="6" t="s">
-        <v>3</v>
+      <c r="M137" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N137" s="5"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F138" s="7"/>
       <c r="G138" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H138" s="4">
         <v>1</v>
@@ -8344,29 +8372,29 @@
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
-      <c r="M138" s="6" t="s">
-        <v>7</v>
+      <c r="M138" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N138" s="5"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="4">
@@ -8376,26 +8404,26 @@
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
-      <c r="M139" s="6" t="s">
-        <v>3</v>
+      <c r="M139" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N139" s="5"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F140" s="7"/>
       <c r="G140" s="3"/>
@@ -8406,30 +8434,30 @@
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
-      <c r="M140" s="6" t="s">
-        <v>7</v>
+      <c r="M140" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N140" s="5"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F141" s="7"/>
       <c r="G141" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H141" s="4">
         <v>5</v>
@@ -8438,26 +8466,26 @@
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
-      <c r="M141" s="6" t="s">
-        <v>3</v>
+      <c r="M141" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N141" s="5"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F142" s="7"/>
       <c r="G142" s="3"/>
@@ -8468,30 +8496,30 @@
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
-      <c r="M142" s="6" t="s">
-        <v>7</v>
+      <c r="M142" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N142" s="5"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F143" s="7"/>
       <c r="G143" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H143" s="4">
         <v>3</v>
@@ -8500,30 +8528,30 @@
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
-      <c r="M143" s="6" t="s">
-        <v>3</v>
+      <c r="M143" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N143" s="5"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F144" s="7"/>
       <c r="G144" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H144" s="4">
         <v>1</v>
@@ -8532,30 +8560,30 @@
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
-      <c r="M144" s="6" t="s">
-        <v>7</v>
+      <c r="M144" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N144" s="5"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F145" s="7"/>
       <c r="G145" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H145" s="4">
         <v>2</v>
@@ -8564,26 +8592,26 @@
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
-      <c r="M145" s="6" t="s">
-        <v>3</v>
+      <c r="M145" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N145" s="5"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="3"/>
@@ -8594,29 +8622,29 @@
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
-      <c r="M146" s="6" t="s">
-        <v>7</v>
+      <c r="M146" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N146" s="5"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="4">
@@ -8626,30 +8654,30 @@
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
-      <c r="M147" s="6" t="s">
-        <v>3</v>
+      <c r="M147" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N147" s="5"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F148" s="7"/>
       <c r="G148" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H148" s="4">
         <v>4</v>
@@ -8658,64 +8686,64 @@
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
-      <c r="M148" s="6" t="s">
-        <v>3</v>
+      <c r="M148" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N148" s="5"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="4">
         <v>5</v>
       </c>
       <c r="I149" s="6"/>
-      <c r="J149" s="6">
-        <v>12</v>
+      <c r="J149" s="6" t="s">
+        <v>1073</v>
       </c>
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
-      <c r="M149" s="6" t="s">
-        <v>3</v>
+      <c r="M149" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N149" s="5"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F150" s="7"/>
       <c r="G150" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H150" s="4">
         <v>3</v>
@@ -8724,60 +8752,60 @@
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
-      <c r="M150" s="6" t="s">
-        <v>7</v>
+      <c r="M150" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N150" s="5"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F151" s="7"/>
       <c r="G151" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H151" s="4">
         <v>1</v>
       </c>
       <c r="I151" s="6"/>
-      <c r="J151" s="6">
-        <v>13</v>
+      <c r="J151" s="6" t="s">
+        <v>1074</v>
       </c>
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
-      <c r="M151" s="6" t="s">
-        <v>3</v>
+      <c r="M151" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N151" s="5"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F152" s="7"/>
       <c r="G152" s="3"/>
@@ -8788,29 +8816,29 @@
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
-      <c r="M152" s="6" t="s">
-        <v>7</v>
+      <c r="M152" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N152" s="5"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="4">
@@ -8820,29 +8848,29 @@
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
-      <c r="M153" s="6" t="s">
-        <v>7</v>
+      <c r="M153" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N153" s="5"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="4">
@@ -8852,28 +8880,28 @@
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
-      <c r="M154" s="6" t="s">
-        <v>3</v>
+      <c r="M154" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N154" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F155" s="7"/>
       <c r="G155" s="3"/>
@@ -8884,30 +8912,30 @@
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
-      <c r="M155" s="6" t="s">
-        <v>7</v>
+      <c r="M155" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N155" s="5"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H156" s="4">
         <v>1</v>
@@ -8916,60 +8944,60 @@
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
-      <c r="M156" s="6" t="s">
-        <v>7</v>
+      <c r="M156" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N156" s="5"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="4">
         <v>2</v>
       </c>
       <c r="I157" s="6"/>
-      <c r="J157" s="6">
-        <v>3</v>
+      <c r="J157" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
-      <c r="M157" s="6" t="s">
-        <v>7</v>
+      <c r="M157" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N157" s="5"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>2</v>
@@ -8979,35 +9007,35 @@
         <v>2</v>
       </c>
       <c r="I158" s="6"/>
-      <c r="J158" s="6">
-        <v>8</v>
+      <c r="J158" s="6" t="s">
+        <v>1069</v>
       </c>
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
-      <c r="M158" s="6" t="s">
-        <v>7</v>
+      <c r="M158" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N158" s="5"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F159" s="7"/>
       <c r="G159" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H159" s="4">
         <v>5</v>
@@ -9016,30 +9044,30 @@
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
-      <c r="M159" s="6" t="s">
-        <v>3</v>
+      <c r="M159" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N159" s="5"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F160" s="7"/>
       <c r="G160" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H160" s="4">
         <v>3</v>
@@ -9048,29 +9076,29 @@
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
-      <c r="M160" s="6" t="s">
-        <v>7</v>
+      <c r="M160" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N160" s="5"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="4">
@@ -9080,30 +9108,30 @@
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
-      <c r="M161" s="6" t="s">
-        <v>7</v>
+      <c r="M161" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N161" s="5"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F162" s="7"/>
       <c r="G162" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H162" s="4">
         <v>2</v>
@@ -9112,30 +9140,30 @@
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
-      <c r="M162" s="6" t="s">
-        <v>7</v>
+      <c r="M162" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N162" s="5"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F163" s="7"/>
       <c r="G163" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H163" s="4">
         <v>1</v>
@@ -9144,29 +9172,29 @@
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
-      <c r="M163" s="6" t="s">
-        <v>7</v>
+      <c r="M163" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N163" s="5"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="4">
@@ -9176,30 +9204,30 @@
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
-      <c r="M164" s="6" t="s">
-        <v>3</v>
+      <c r="M164" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N164" s="5"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F165" s="7"/>
       <c r="G165" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H165" s="4">
         <v>5</v>
@@ -9208,63 +9236,63 @@
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
-      <c r="M165" s="6" t="s">
-        <v>3</v>
+      <c r="M165" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N165" s="5"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F166" s="7"/>
       <c r="G166" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H166" s="4">
         <v>3</v>
       </c>
       <c r="I166" s="6"/>
-      <c r="J166" s="6">
-        <v>2</v>
+      <c r="J166" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="K166" s="6"/>
       <c r="L166" s="6"/>
-      <c r="M166" s="6" t="s">
-        <v>3</v>
+      <c r="M166" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N166" s="5"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G167" s="3"/>
       <c r="H167" s="4">
@@ -9274,29 +9302,29 @@
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
-      <c r="M167" s="6" t="s">
-        <v>3</v>
+      <c r="M167" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N167" s="5"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="4">
@@ -9306,30 +9334,30 @@
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
-      <c r="M168" s="6" t="s">
-        <v>7</v>
+      <c r="M168" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N168" s="5"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F169" s="7"/>
       <c r="G169" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H169" s="4">
         <v>2</v>
@@ -9338,29 +9366,29 @@
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
-      <c r="M169" s="6" t="s">
-        <v>3</v>
+      <c r="M169" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N169" s="5"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="4">
@@ -9370,30 +9398,30 @@
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
-      <c r="M170" s="6" t="s">
-        <v>7</v>
+      <c r="M170" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N170" s="5"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F171" s="7"/>
       <c r="G171" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H171" s="4">
         <v>1</v>
@@ -9402,30 +9430,30 @@
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
       <c r="L171" s="6"/>
-      <c r="M171" s="6" t="s">
-        <v>7</v>
+      <c r="M171" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N171" s="5"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F172" s="7"/>
       <c r="G172" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H172" s="4">
         <v>4</v>
@@ -9434,29 +9462,29 @@
       <c r="J172" s="6"/>
       <c r="K172" s="6"/>
       <c r="L172" s="6"/>
-      <c r="M172" s="6" t="s">
-        <v>3</v>
+      <c r="M172" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N172" s="5"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="4">
@@ -9466,63 +9494,63 @@
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
-      <c r="M173" s="6" t="s">
-        <v>7</v>
+      <c r="M173" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N173" s="5"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F174" s="7"/>
       <c r="G174" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H174" s="4">
         <v>2</v>
       </c>
       <c r="I174" s="6"/>
-      <c r="J174" s="6">
-        <v>11</v>
+      <c r="J174" s="6" t="s">
+        <v>1072</v>
       </c>
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
-      <c r="M174" s="6" t="s">
-        <v>3</v>
+      <c r="M174" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N174" s="5"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="4">
@@ -9532,32 +9560,32 @@
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
       <c r="L175" s="6"/>
-      <c r="M175" s="6" t="s">
-        <v>7</v>
+      <c r="M175" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N175" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F176" s="7"/>
       <c r="G176" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H176" s="4">
         <v>5</v>
@@ -9566,30 +9594,30 @@
       <c r="J176" s="6"/>
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
-      <c r="M176" s="6" t="s">
-        <v>3</v>
+      <c r="M176" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N176" s="5"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F177" s="7"/>
       <c r="G177" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H177" s="4">
         <v>2</v>
@@ -9598,30 +9626,30 @@
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
-      <c r="M177" s="6" t="s">
-        <v>7</v>
+      <c r="M177" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N177" s="5"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F178" s="7"/>
       <c r="G178" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H178" s="4">
         <v>4</v>
@@ -9630,29 +9658,29 @@
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
-      <c r="M178" s="6" t="s">
-        <v>3</v>
+      <c r="M178" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N178" s="5"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G179" s="3"/>
       <c r="H179" s="4">
@@ -9662,64 +9690,64 @@
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
-      <c r="M179" s="6" t="s">
-        <v>7</v>
+      <c r="M179" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N179" s="5"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F180" s="7"/>
       <c r="G180" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H180" s="4">
         <v>5</v>
       </c>
       <c r="I180" s="6"/>
-      <c r="J180" s="6">
-        <v>16</v>
+      <c r="J180" s="6" t="s">
+        <v>1077</v>
       </c>
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
-      <c r="M180" s="6" t="s">
-        <v>3</v>
+      <c r="M180" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N180" s="5"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F181" s="7"/>
       <c r="G181" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H181" s="4">
         <v>1</v>
@@ -9728,60 +9756,60 @@
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
-      <c r="M181" s="6" t="s">
-        <v>7</v>
+      <c r="M181" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N181" s="5"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F182" s="7"/>
       <c r="G182" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H182" s="4">
         <v>2</v>
       </c>
       <c r="I182" s="6"/>
-      <c r="J182" s="6">
-        <v>16</v>
+      <c r="J182" s="6" t="s">
+        <v>1077</v>
       </c>
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
-      <c r="M182" s="6" t="s">
-        <v>3</v>
+      <c r="M182" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N182" s="5"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>2</v>
@@ -9794,30 +9822,30 @@
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
-      <c r="M183" s="6" t="s">
-        <v>3</v>
+      <c r="M183" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N183" s="5"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F184" s="7"/>
       <c r="G184" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H184" s="4">
         <v>5</v>
@@ -9826,30 +9854,30 @@
       <c r="J184" s="6"/>
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
-      <c r="M184" s="6" t="s">
-        <v>3</v>
+      <c r="M184" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N184" s="5"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F185" s="7"/>
       <c r="G185" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H185" s="4">
         <v>4</v>
@@ -9858,29 +9886,29 @@
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
-      <c r="M185" s="6" t="s">
-        <v>7</v>
+      <c r="M185" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N185" s="5"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G186" s="3"/>
       <c r="H186" s="4">
@@ -9890,30 +9918,30 @@
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
-      <c r="M186" s="6" t="s">
-        <v>3</v>
+      <c r="M186" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N186" s="5"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F187" s="7"/>
       <c r="G187" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H187" s="4">
         <v>5</v>
@@ -9922,29 +9950,29 @@
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
-      <c r="M187" s="6" t="s">
-        <v>7</v>
+      <c r="M187" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N187" s="5"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="4">
@@ -9954,64 +9982,64 @@
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
-      <c r="M188" s="6" t="s">
-        <v>7</v>
+      <c r="M188" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N188" s="5"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F189" s="7"/>
       <c r="G189" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H189" s="4">
         <v>1</v>
       </c>
       <c r="I189" s="6"/>
-      <c r="J189" s="6">
-        <v>14</v>
+      <c r="J189" s="6" t="s">
+        <v>1075</v>
       </c>
       <c r="K189" s="6"/>
       <c r="L189" s="6"/>
-      <c r="M189" s="6" t="s">
-        <v>7</v>
+      <c r="M189" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N189" s="5"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F190" s="7"/>
       <c r="G190" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H190" s="4">
         <v>1</v>
@@ -10020,30 +10048,30 @@
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
       <c r="L190" s="6"/>
-      <c r="M190" s="6" t="s">
-        <v>7</v>
+      <c r="M190" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N190" s="5"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F191" s="7"/>
       <c r="G191" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H191" s="4">
         <v>4</v>
@@ -10052,30 +10080,30 @@
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
       <c r="L191" s="6"/>
-      <c r="M191" s="6" t="s">
-        <v>7</v>
+      <c r="M191" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N191" s="5"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F192" s="7"/>
       <c r="G192" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H192" s="4">
         <v>5</v>
@@ -10084,26 +10112,26 @@
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
-      <c r="M192" s="6" t="s">
-        <v>3</v>
+      <c r="M192" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N192" s="5"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F193" s="7"/>
       <c r="G193" s="3"/>
@@ -10114,29 +10142,29 @@
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
-      <c r="M193" s="6" t="s">
-        <v>3</v>
+      <c r="M193" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N193" s="5"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="4">
@@ -10146,63 +10174,63 @@
       <c r="J194" s="6"/>
       <c r="K194" s="6"/>
       <c r="L194" s="6"/>
-      <c r="M194" s="6" t="s">
-        <v>3</v>
+      <c r="M194" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N194" s="5"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G195" s="3"/>
       <c r="H195" s="4">
         <v>5</v>
       </c>
       <c r="I195" s="6"/>
-      <c r="J195" s="6">
-        <v>12</v>
+      <c r="J195" s="6" t="s">
+        <v>1073</v>
       </c>
       <c r="K195" s="6"/>
       <c r="L195" s="6"/>
-      <c r="M195" s="6" t="s">
-        <v>3</v>
+      <c r="M195" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N195" s="5"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="4">
@@ -10212,30 +10240,30 @@
       <c r="J196" s="6"/>
       <c r="K196" s="6"/>
       <c r="L196" s="6"/>
-      <c r="M196" s="6" t="s">
-        <v>3</v>
+      <c r="M196" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N196" s="5"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F197" s="7"/>
       <c r="G197" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H197" s="4">
         <v>3</v>
@@ -10244,29 +10272,29 @@
       <c r="J197" s="6"/>
       <c r="K197" s="6"/>
       <c r="L197" s="6"/>
-      <c r="M197" s="6" t="s">
-        <v>3</v>
+      <c r="M197" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N197" s="5"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="4">
@@ -10276,29 +10304,29 @@
       <c r="J198" s="6"/>
       <c r="K198" s="6"/>
       <c r="L198" s="6"/>
-      <c r="M198" s="6" t="s">
-        <v>7</v>
+      <c r="M198" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N198" s="5"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="4">
@@ -10308,64 +10336,64 @@
       <c r="J199" s="4"/>
       <c r="K199" s="4"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="4" t="s">
-        <v>7</v>
+      <c r="M199" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N199" s="5"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F200" s="7"/>
       <c r="G200" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H200" s="4">
         <v>1</v>
       </c>
       <c r="I200" s="4"/>
-      <c r="J200" s="4">
-        <v>12</v>
+      <c r="J200" s="4" t="s">
+        <v>1073</v>
       </c>
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
-      <c r="M200" s="4" t="s">
-        <v>3</v>
+      <c r="M200" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N200" s="5"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F201" s="7"/>
       <c r="G201" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H201" s="4">
         <v>4</v>
@@ -10374,29 +10402,29 @@
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
       <c r="L201" s="4"/>
-      <c r="M201" s="4" t="s">
-        <v>3</v>
+      <c r="M201" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N201" s="5"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="4">
@@ -10406,29 +10434,29 @@
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="4" t="s">
-        <v>7</v>
+      <c r="M202" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N202" s="5"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="4">
@@ -10438,32 +10466,32 @@
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
       <c r="L203" s="4"/>
-      <c r="M203" s="4" t="s">
-        <v>7</v>
+      <c r="M203" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N203" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F204" s="7"/>
       <c r="G204" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H204" s="4">
         <v>4</v>
@@ -10472,30 +10500,30 @@
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="4" t="s">
-        <v>3</v>
+      <c r="M204" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N204" s="5"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H205" s="4">
         <v>2</v>
@@ -10504,63 +10532,63 @@
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="4" t="s">
-        <v>7</v>
+      <c r="M205" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N205" s="5"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F206" s="7"/>
       <c r="G206" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H206" s="4">
         <v>5</v>
       </c>
       <c r="I206" s="4"/>
-      <c r="J206" s="4">
-        <v>7</v>
+      <c r="J206" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="K206" s="4"/>
       <c r="L206" s="4"/>
-      <c r="M206" s="4" t="s">
-        <v>3</v>
+      <c r="M206" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N206" s="5"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="4">
@@ -10570,29 +10598,29 @@
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
       <c r="L207" s="4"/>
-      <c r="M207" s="4" t="s">
-        <v>7</v>
+      <c r="M207" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N207" s="5"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="4">
@@ -10602,30 +10630,30 @@
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
       <c r="L208" s="4"/>
-      <c r="M208" s="4" t="s">
-        <v>7</v>
+      <c r="M208" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N208" s="5"/>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F209" s="7"/>
       <c r="G209" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H209" s="4">
         <v>2</v>
@@ -10634,30 +10662,30 @@
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="4" t="s">
-        <v>7</v>
+      <c r="M209" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N209" s="5"/>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F210" s="7"/>
       <c r="G210" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H210" s="4">
         <v>1</v>
@@ -10666,29 +10694,29 @@
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="4" t="s">
-        <v>7</v>
+      <c r="M210" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N210" s="5"/>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G211" s="3"/>
       <c r="H211" s="4">
@@ -10698,26 +10726,26 @@
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
       <c r="L211" s="4"/>
-      <c r="M211" s="4" t="s">
-        <v>7</v>
+      <c r="M211" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N211" s="5"/>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F212" s="7"/>
       <c r="G212" s="3"/>
@@ -10728,30 +10756,30 @@
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
       <c r="L212" s="4"/>
-      <c r="M212" s="4" t="s">
-        <v>7</v>
+      <c r="M212" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N212" s="5"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F213" s="7"/>
       <c r="G213" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H213" s="4">
         <v>5</v>
@@ -10760,29 +10788,29 @@
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="4" t="s">
-        <v>3</v>
+      <c r="M213" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N213" s="5"/>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G214" s="3"/>
       <c r="H214" s="4">
@@ -10792,29 +10820,29 @@
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
       <c r="L214" s="4"/>
-      <c r="M214" s="4" t="s">
-        <v>3</v>
+      <c r="M214" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N214" s="5"/>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G215" s="3"/>
       <c r="H215" s="4">
@@ -10824,26 +10852,26 @@
       <c r="J215" s="4"/>
       <c r="K215" s="4"/>
       <c r="L215" s="4"/>
-      <c r="M215" s="4" t="s">
-        <v>3</v>
+      <c r="M215" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N215" s="5"/>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>2</v>
@@ -10856,26 +10884,26 @@
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
       <c r="L216" s="4"/>
-      <c r="M216" s="4" t="s">
-        <v>7</v>
+      <c r="M216" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N216" s="5"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F217" s="7"/>
       <c r="G217" s="3"/>
@@ -10886,30 +10914,30 @@
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
       <c r="L217" s="4"/>
-      <c r="M217" s="4" t="s">
-        <v>7</v>
+      <c r="M217" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N217" s="5"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H218" s="4">
         <v>5</v>
@@ -10918,30 +10946,30 @@
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="4" t="s">
-        <v>7</v>
+      <c r="M218" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N218" s="5"/>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F219" s="7"/>
       <c r="G219" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H219" s="4">
         <v>3</v>
@@ -10950,30 +10978,30 @@
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
       <c r="L219" s="4"/>
-      <c r="M219" s="4" t="s">
-        <v>7</v>
+      <c r="M219" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N219" s="5"/>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F220" s="7"/>
       <c r="G220" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H220" s="4">
         <v>1</v>
@@ -10982,30 +11010,30 @@
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
       <c r="L220" s="4"/>
-      <c r="M220" s="4" t="s">
-        <v>7</v>
+      <c r="M220" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N220" s="5"/>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F221" s="7"/>
       <c r="G221" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H221" s="4">
         <v>3</v>
@@ -11014,30 +11042,30 @@
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
       <c r="L221" s="4"/>
-      <c r="M221" s="4" t="s">
-        <v>7</v>
+      <c r="M221" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N221" s="5"/>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F222" s="7"/>
       <c r="G222" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H222" s="4">
         <v>4</v>
@@ -11046,63 +11074,63 @@
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
       <c r="L222" s="4"/>
-      <c r="M222" s="4" t="s">
-        <v>7</v>
+      <c r="M222" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N222" s="5"/>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H223" s="4">
         <v>5</v>
       </c>
       <c r="I223" s="4"/>
-      <c r="J223" s="4">
-        <v>12</v>
+      <c r="J223" s="4" t="s">
+        <v>1073</v>
       </c>
       <c r="K223" s="4"/>
       <c r="L223" s="4"/>
-      <c r="M223" s="4" t="s">
-        <v>3</v>
+      <c r="M223" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N223" s="5"/>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G224" s="3"/>
       <c r="H224" s="4">
@@ -11112,30 +11140,30 @@
       <c r="J224" s="4"/>
       <c r="K224" s="4"/>
       <c r="L224" s="4"/>
-      <c r="M224" s="4" t="s">
-        <v>3</v>
+      <c r="M224" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N224" s="5"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H225" s="4">
         <v>3</v>
@@ -11144,29 +11172,29 @@
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
       <c r="L225" s="4"/>
-      <c r="M225" s="4" t="s">
-        <v>3</v>
+      <c r="M225" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N225" s="5"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G226" s="3"/>
       <c r="H226" s="4">
@@ -11176,29 +11204,29 @@
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
       <c r="L226" s="4"/>
-      <c r="M226" s="4" t="s">
-        <v>3</v>
+      <c r="M226" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N226" s="5"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G227" s="3"/>
       <c r="H227" s="4">
@@ -11208,30 +11236,30 @@
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
       <c r="L227" s="4"/>
-      <c r="M227" s="4" t="s">
-        <v>7</v>
+      <c r="M227" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N227" s="5"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F228" s="7"/>
       <c r="G228" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H228" s="4">
         <v>2</v>
@@ -11240,30 +11268,30 @@
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
       <c r="L228" s="4"/>
-      <c r="M228" s="4" t="s">
-        <v>7</v>
+      <c r="M228" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N228" s="5"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F229" s="7"/>
       <c r="G229" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H229" s="4">
         <v>2</v>
@@ -11272,8 +11300,8 @@
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
       <c r="L229" s="4"/>
-      <c r="M229" s="4" t="s">
-        <v>7</v>
+      <c r="M229" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="N229" s="5"/>
     </row>

--- a/Kanji Storage.xlsx
+++ b/Kanji Storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Japanese Dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E2C7F0-A835-4374-A595-FD34D6A159F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553E5A31-B8FF-4B2C-BFFB-769F1E8F503A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="16080" windowWidth="19440" windowHeight="10590" xr2:uid="{D6FF4FC2-0135-406D-A64E-1610F306DCDF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D6FF4FC2-0135-406D-A64E-1610F306DCDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3897,8 +3897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF80FB1D-2E71-48B9-B9D5-5987A57EBCD1}">
   <dimension ref="A1:N229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Kanji Storage.xlsx
+++ b/Kanji Storage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Japanese Dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553E5A31-B8FF-4B2C-BFFB-769F1E8F503A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798DEABF-CF8F-4614-8CE7-6CD1AF02255D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D6FF4FC2-0135-406D-A64E-1610F306DCDF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="1077">
   <si>
     <t>上</t>
   </si>
@@ -306,9 +306,6 @@
   </si>
   <si>
     <t>方</t>
-  </si>
-  <si>
-    <t>ippou for one of two</t>
   </si>
   <si>
     <t>遠</t>
@@ -3576,7 +3573,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{633B4983-3B99-4E13-9602-1E4CABEE47FD}" name="Table1" displayName="Table1" ref="A1:N229" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:N229" xr:uid="{25F29FBE-ABB6-4380-96BD-BE546B0CE362}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N229">
-    <sortCondition ref="B1:B229"/>
+    <sortCondition ref="N1:N229"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{1AEF5358-6180-4AA9-A8CB-7CC9F8BF414D}" name="writing" dataDxfId="13"/>
@@ -3897,8 +3894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF80FB1D-2E71-48B9-B9D5-5987A57EBCD1}">
   <dimension ref="A1:N229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A230" sqref="A230"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3919,70 +3916,70 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>838</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>837</v>
-      </c>
       <c r="H1" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>833</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>758</v>
+        <v>663</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>839</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="4">
         <v>2</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4">
-        <v>4</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -3991,158 +3988,166 @@
       <c r="M2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="5"/>
+      <c r="N2" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>759</v>
+        <v>646</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>840</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>846</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
-        <v>1075</v>
-      </c>
+      <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>227</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>485</v>
+        <v>564</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>760</v>
+        <v>793</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>841</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>939</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>487</v>
+        <v>563</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>642</v>
+        <v>792</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>842</v>
+        <v>938</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H5" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>488</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>643</v>
+        <v>722</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>843</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>987</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="4">
         <v>3</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>1070</v>
-      </c>
+      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>489</v>
+        <v>527</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>644</v>
+        <v>766</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>884</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="4">
         <v>5</v>
       </c>
@@ -4153,123 +4158,127 @@
       <c r="M7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>645</v>
+        <v>780</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>845</v>
+        <v>908</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
-        <v>1071</v>
-      </c>
+      <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>371</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>491</v>
+        <v>612</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>646</v>
+        <v>814</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>1008</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>1071</v>
-      </c>
+      <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N9" s="5"/>
+      <c r="N9" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>426</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>427</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>492</v>
+        <v>628</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>647</v>
+        <v>729</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>847</v>
+        <v>1036</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1064</v>
+        <v>765</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1065</v>
+        <v>874</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>2</v>
@@ -4289,26 +4298,26 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>648</v>
+        <v>757</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>848</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -4321,94 +4330,90 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>646</v>
+        <v>758</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H13" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>434</v>
+        <v>1074</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>649</v>
+        <v>759</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H14" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
-        <v>1072</v>
-      </c>
+      <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -4421,27 +4426,31 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>1069</v>
+      </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="b">
@@ -4451,26 +4460,26 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>843</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H17" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -4483,63 +4492,63 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>761</v>
+        <v>644</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>854</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>844</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="3"/>
       <c r="H18" s="4">
         <v>4</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>855</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>845</v>
+      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="3"/>
       <c r="H19" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>1070</v>
+      </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="b">
@@ -4549,31 +4558,29 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>654</v>
+        <v>1063</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>1064</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="6" t="s">
-        <v>333</v>
-      </c>
+      <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6" t="b">
@@ -4583,94 +4590,96 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>645</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="3" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="H22" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="J22" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>859</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>849</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H23" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6" t="s">
-        <v>58</v>
+        <v>1071</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -4681,31 +4690,29 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>762</v>
+        <v>649</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="3" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H24" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="b">
@@ -4715,26 +4722,24 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G25" s="3"/>
       <c r="H25" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -4747,26 +4752,26 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>763</v>
+        <v>651</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>862</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>852</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="3"/>
       <c r="H26" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -4779,29 +4784,31 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>658</v>
+        <v>760</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H27" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="6" t="s">
+        <v>1071</v>
+      </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6" t="b">
@@ -4811,120 +4818,124 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="F29" s="7"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H29" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="6" t="s">
+        <v>332</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>654</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H30" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="5"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>764</v>
+        <v>52</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="3" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H31" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -4937,27 +4948,31 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="F32" s="7"/>
+        <v>858</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="J32" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6" t="b">
@@ -4967,29 +4982,31 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>662</v>
+        <v>761</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="H33" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="J33" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6" t="b">
@@ -4999,150 +5016,152 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H34" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>664</v>
+        <v>762</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="3" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="H35" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>765</v>
+        <v>658</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="F37" s="7"/>
+        <v>863</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="3"/>
       <c r="H38" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -5155,26 +5174,26 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>766</v>
+        <v>52</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39" s="3"/>
+        <v>865</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H39" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -5183,37 +5202,33 @@
       <c r="M39" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="N39" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>667</v>
+        <v>763</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" s="3"/>
+        <v>866</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40" s="6"/>
-      <c r="J40" s="6" t="s">
-        <v>1075</v>
-      </c>
+      <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6" t="b">
@@ -5223,57 +5238,53 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="G41" s="3"/>
       <c r="H41" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I41" s="6"/>
-      <c r="J41" s="6" t="s">
-        <v>213</v>
-      </c>
+      <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="3" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H42" s="4">
         <v>1</v>
@@ -5283,32 +5294,32 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H43" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -5321,60 +5332,54 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="F44" s="7"/>
-      <c r="G44" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="G44" s="3"/>
       <c r="H44" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I44" s="6"/>
-      <c r="J44" s="6" t="s">
-        <v>140</v>
-      </c>
+      <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>672</v>
+        <v>764</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>881</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>872</v>
+      </c>
+      <c r="F45" s="7"/>
       <c r="G45" s="3"/>
       <c r="H45" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -5387,31 +5392,27 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>873</v>
+      </c>
+      <c r="F46" s="7"/>
       <c r="G46" s="3"/>
       <c r="H46" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" s="6"/>
-      <c r="J46" s="6" t="s">
-        <v>333</v>
-      </c>
+      <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6" t="b">
@@ -5421,61 +5422,65 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
+      <c r="J47" s="6" t="s">
+        <v>1074</v>
+      </c>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="5"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H48" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
+      <c r="J48" s="6" t="s">
+        <v>212</v>
+      </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6" t="b">
@@ -5485,95 +5490,95 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>767</v>
+        <v>668</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>885</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="3"/>
+        <v>877</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H49" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>114</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N49" s="5"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>768</v>
+        <v>669</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="3" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="H50" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="5"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>769</v>
+        <v>670</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="H51" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
+      <c r="J51" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6" t="b">
@@ -5583,86 +5588,92 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>52</v>
+        <v>671</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>888</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>880</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G52" s="3"/>
       <c r="H52" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="5"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>889</v>
-      </c>
-      <c r="F53" s="7"/>
+        <v>881</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
+      <c r="J53" s="6" t="s">
+        <v>332</v>
+      </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="5"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>890</v>
-      </c>
-      <c r="F54" s="7"/>
+        <v>882</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G54" s="3"/>
       <c r="H54" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -5675,24 +5686,26 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>770</v>
+        <v>674</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="F55" s="7"/>
-      <c r="G55" s="3"/>
+      <c r="G55" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H55" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -5705,24 +5718,26 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>52</v>
+        <v>767</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="F56" s="7"/>
-      <c r="G56" s="3"/>
+      <c r="G56" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="H56" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -5735,26 +5750,26 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>533</v>
+        <v>485</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>893</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" s="3"/>
+        <v>886</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="H57" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -5767,31 +5782,29 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>677</v>
+        <v>52</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>894</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="3"/>
+        <v>887</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="H58" s="4">
         <v>5</v>
       </c>
       <c r="I58" s="6"/>
-      <c r="J58" s="6" t="s">
-        <v>134</v>
-      </c>
+      <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6" t="b">
@@ -5801,26 +5814,24 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>535</v>
+        <v>484</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>772</v>
+        <v>675</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>895</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>888</v>
+      </c>
+      <c r="F59" s="7"/>
       <c r="G59" s="3"/>
       <c r="H59" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -5833,61 +5844,57 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>773</v>
+        <v>673</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="3"/>
       <c r="H60" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" s="5"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="G61" s="3"/>
       <c r="H61" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I61" s="6"/>
-      <c r="J61" s="6" t="s">
-        <v>140</v>
-      </c>
+      <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6" t="b">
@@ -5897,26 +5904,24 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>678</v>
+        <v>52</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="F62" s="7"/>
-      <c r="G62" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="G62" s="3"/>
       <c r="H62" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -5929,26 +5934,26 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -5961,29 +5966,31 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>776</v>
+        <v>676</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>900</v>
-      </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>893</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="3"/>
       <c r="H64" s="4">
         <v>5</v>
       </c>
       <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
+      <c r="J64" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6" t="b">
@@ -5993,91 +6000,93 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>901</v>
-      </c>
-      <c r="F65" s="7"/>
+        <v>894</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G65" s="3"/>
       <c r="H65" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" s="5"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="F66" s="7"/>
-      <c r="G66" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="G66" s="3"/>
       <c r="H66" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" s="5"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>679</v>
+        <v>773</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>903</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G67" s="3"/>
+        <v>896</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="H67" s="4">
         <v>5</v>
       </c>
       <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
+      <c r="J67" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6" t="b">
@@ -6087,86 +6096,90 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="F68" s="7"/>
-      <c r="G68" s="3"/>
+      <c r="G68" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="H68" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" s="5"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>52</v>
+        <v>535</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>905</v>
-      </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>898</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G69" s="3"/>
       <c r="H69" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" s="5"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>681</v>
+        <v>775</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="F70" s="7"/>
-      <c r="G70" s="3"/>
+      <c r="G70" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="H70" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -6179,24 +6192,24 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="3"/>
       <c r="H71" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -6209,51 +6222,51 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>498</v>
+        <v>539</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>682</v>
+        <v>777</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H72" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" s="5"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>781</v>
+        <v>678</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>56</v>
@@ -6269,29 +6282,25 @@
       <c r="M73" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N73" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="N73" s="5"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>490</v>
+        <v>541</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>656</v>
+        <v>679</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>910</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>903</v>
+      </c>
+      <c r="F74" s="7"/>
       <c r="G74" s="3"/>
       <c r="H74" s="4">
         <v>1</v>
@@ -6307,31 +6316,29 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>545</v>
+        <v>52</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>683</v>
+        <v>778</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="3" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="H75" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I75" s="6"/>
-      <c r="J75" s="6" t="s">
-        <v>1069</v>
-      </c>
+      <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6" t="b">
@@ -6341,31 +6348,27 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="F76" s="7"/>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G76" s="3"/>
       <c r="H76" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76" s="6"/>
-      <c r="J76" s="6" t="s">
-        <v>333</v>
-      </c>
+      <c r="J76" s="6"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6" t="b">
@@ -6375,90 +6378,88 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>913</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>906</v>
+      </c>
+      <c r="F77" s="7"/>
       <c r="G77" s="3"/>
       <c r="H77" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" s="5"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>783</v>
+        <v>681</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="3" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="H78" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78" s="5"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>548</v>
+        <v>489</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>685</v>
+        <v>655</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="F79" s="7"/>
-      <c r="G79" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>909</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G79" s="3"/>
       <c r="H79" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -6471,29 +6472,31 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G80" s="3"/>
+        <v>910</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H80" s="4">
         <v>4</v>
       </c>
       <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
+      <c r="J80" s="6" t="s">
+        <v>1068</v>
+      </c>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6" t="b">
@@ -6503,51 +6506,53 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>784</v>
+        <v>683</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="3" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="H81" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
+      <c r="J81" s="6" t="s">
+        <v>332</v>
+      </c>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" s="5"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>687</v>
+        <v>781</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>41</v>
@@ -6557,9 +6562,7 @@
         <v>5</v>
       </c>
       <c r="I82" s="6"/>
-      <c r="J82" s="6" t="s">
-        <v>1068</v>
-      </c>
+      <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6" t="b">
@@ -6569,55 +6572,55 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>688</v>
+        <v>782</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="3" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="H83" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" s="5"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="3" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="H84" s="4">
         <v>2</v>
@@ -6627,69 +6630,67 @@
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" s="5"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>921</v>
-      </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>915</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G85" s="3"/>
       <c r="H85" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" s="5"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G86" s="3"/>
+        <v>916</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="H86" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I86" s="6"/>
-      <c r="J86" s="6" t="s">
-        <v>1074</v>
-      </c>
+      <c r="J86" s="6"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6" t="b">
@@ -6699,29 +6700,31 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>786</v>
+        <v>686</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>923</v>
-      </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>917</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" s="3"/>
       <c r="H87" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
+      <c r="J87" s="6" t="s">
+        <v>1067</v>
+      </c>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6" t="b">
@@ -6731,26 +6734,26 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G88" s="3"/>
+        <v>918</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="H88" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
@@ -6763,31 +6766,29 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>486</v>
+        <v>552</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>787</v>
+        <v>688</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="3" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="H89" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I89" s="6"/>
-      <c r="J89" s="6" t="s">
-        <v>1070</v>
-      </c>
+      <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6" t="b">
@@ -6797,127 +6798,127 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>52</v>
+        <v>688</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>858</v>
+        <v>920</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H90" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90" s="5"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>556</v>
+        <v>504</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>691</v>
+        <v>784</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
+      <c r="J91" s="6" t="s">
+        <v>1073</v>
+      </c>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91" s="5"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>927</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" s="3"/>
+        <v>922</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H92" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92" s="5"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>52</v>
+        <v>689</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>928</v>
-      </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>923</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G93" s="3"/>
       <c r="H93" s="4">
         <v>5</v>
       </c>
       <c r="I93" s="6"/>
-      <c r="J93" s="6" t="s">
-        <v>1076</v>
-      </c>
+      <c r="J93" s="6"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6" t="b">
@@ -6927,28 +6928,30 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>558</v>
+        <v>485</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F94" s="7"/>
-      <c r="G94" s="3"/>
+      <c r="G94" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H94" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="6" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
@@ -6959,23 +6962,23 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>692</v>
+        <v>52</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>930</v>
+        <v>857</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H95" s="4">
         <v>1</v>
@@ -6985,32 +6988,32 @@
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" s="5"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>931</v>
-      </c>
-      <c r="F96" s="7"/>
-      <c r="G96" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="3"/>
       <c r="H96" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
@@ -7023,60 +7026,58 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>694</v>
+        <v>787</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I97" s="6"/>
-      <c r="J97" s="6" t="s">
-        <v>213</v>
-      </c>
+      <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97" s="5"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>790</v>
+        <v>52</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>933</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G98" s="3"/>
+        <v>927</v>
+      </c>
+      <c r="F98" s="7"/>
+      <c r="G98" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H98" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6" t="s">
@@ -7091,57 +7092,55 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>695</v>
+        <v>788</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="F99" s="7"/>
-      <c r="G99" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="G99" s="3"/>
       <c r="H99" s="4">
         <v>4</v>
       </c>
       <c r="I99" s="6"/>
       <c r="J99" s="6" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99" s="5"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>791</v>
+        <v>691</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="3" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="H100" s="4">
         <v>1</v>
@@ -7151,32 +7150,32 @@
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100" s="5"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>561</v>
+        <v>524</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H101" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
@@ -7189,63 +7188,65 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="6" t="s">
-        <v>1069</v>
+        <v>212</v>
       </c>
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N102" s="5"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>938</v>
-      </c>
-      <c r="F103" s="7"/>
-      <c r="G103" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>932</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G103" s="3"/>
       <c r="H103" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
+      <c r="J103" s="6" t="s">
+        <v>1074</v>
+      </c>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6" t="b">
@@ -7255,60 +7256,60 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>564</v>
+        <v>507</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>793</v>
+        <v>694</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="3" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="H104" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
+      <c r="J104" s="6" t="s">
+        <v>1071</v>
+      </c>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="N104" s="5" t="s">
-        <v>227</v>
-      </c>
+      <c r="N104" s="5"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>565</v>
+        <v>496</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>940</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G105" s="3"/>
+        <v>934</v>
+      </c>
+      <c r="F105" s="7"/>
+      <c r="G105" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="H105" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
@@ -7317,32 +7318,30 @@
       <c r="M105" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="N105" s="5" t="s">
-        <v>230</v>
-      </c>
+      <c r="N105" s="5"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>232</v>
+        <v>5</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>795</v>
+        <v>695</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>941</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G106" s="3"/>
+        <v>935</v>
+      </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="H106" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
@@ -7355,29 +7354,31 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>494</v>
+        <v>561</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>796</v>
+        <v>696</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
+      <c r="J107" s="6" t="s">
+        <v>1068</v>
+      </c>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="M107" s="6" t="b">
@@ -7387,26 +7388,26 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="3" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="H108" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
@@ -7419,147 +7420,149 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>694</v>
+        <v>794</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="F109" s="7"/>
+        <v>940</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G109" s="3"/>
       <c r="H109" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
       <c r="M109" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109" s="5"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>568</v>
+        <v>493</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>698</v>
+        <v>795</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>945</v>
-      </c>
-      <c r="F110" s="7"/>
-      <c r="G110" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>941</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G110" s="3"/>
       <c r="H110" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
       <c r="M110" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110" s="5"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="F111" s="7"/>
-      <c r="G111" s="3"/>
+      <c r="G111" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H111" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
       <c r="M111" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N111" s="5"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>52</v>
+        <v>693</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="F112" s="7"/>
-      <c r="G112" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G112" s="3"/>
       <c r="H112" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N112" s="5"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="F113" s="7"/>
       <c r="G113" s="3" t="s">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="H113" s="4">
         <v>1</v>
@@ -7575,24 +7578,22 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>504</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>52</v>
+        <v>797</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>858</v>
+        <v>945</v>
       </c>
       <c r="F114" s="7"/>
-      <c r="G114" s="3" t="s">
-        <v>247</v>
-      </c>
+      <c r="G114" s="3"/>
       <c r="H114" s="4">
         <v>2</v>
       </c>
@@ -7607,56 +7608,56 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>700</v>
+        <v>52</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>949</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G115" s="3"/>
+        <v>946</v>
+      </c>
+      <c r="F115" s="7"/>
+      <c r="G115" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H115" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
       <c r="M115" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N115" s="5"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>799</v>
+        <v>698</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G116" s="3"/>
+        <v>947</v>
+      </c>
+      <c r="F116" s="7"/>
+      <c r="G116" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="H116" s="4">
         <v>1</v>
       </c>
@@ -7665,194 +7666,194 @@
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
       <c r="M116" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N116" s="5"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>575</v>
+        <v>503</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>701</v>
+        <v>52</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>951</v>
+        <v>857</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="3" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="H117" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" s="6"/>
-      <c r="J117" s="6" t="s">
-        <v>1076</v>
-      </c>
+      <c r="J117" s="6"/>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
       <c r="M117" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N117" s="5"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>952</v>
-      </c>
-      <c r="F118" s="7"/>
-      <c r="G118" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G118" s="3"/>
       <c r="H118" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N118" s="5"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>703</v>
+        <v>798</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>953</v>
-      </c>
-      <c r="F119" s="7"/>
-      <c r="G119" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>949</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G119" s="3"/>
       <c r="H119" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
       <c r="M119" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N119" s="5"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>494</v>
+        <v>574</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>954</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G120" s="3"/>
+        <v>950</v>
+      </c>
+      <c r="F120" s="7"/>
+      <c r="G120" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H120" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
+      <c r="J120" s="6" t="s">
+        <v>1075</v>
+      </c>
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120" s="5"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>800</v>
+        <v>701</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="F121" s="7"/>
       <c r="G121" s="3" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="H121" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
       <c r="M121" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N121" s="5"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="F122" s="7"/>
       <c r="G122" s="3" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="H122" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
@@ -7865,90 +7866,90 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>801</v>
+        <v>703</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="F123" s="7"/>
-      <c r="G123" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>953</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G123" s="3"/>
       <c r="H123" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N123" s="5"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>706</v>
+        <v>799</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="F124" s="7"/>
       <c r="G124" s="3" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
       <c r="H124" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
       <c r="M124" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124" s="5"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="F125" s="7"/>
       <c r="G125" s="3" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="H125" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
@@ -7961,55 +7962,55 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>552</v>
+        <v>514</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>960</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G126" s="3"/>
+        <v>956</v>
+      </c>
+      <c r="F126" s="7"/>
+      <c r="G126" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="H126" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
       <c r="M126" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N126" s="5"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>52</v>
+        <v>705</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F127" s="7"/>
       <c r="G127" s="3" t="s">
-        <v>59</v>
+        <v>268</v>
       </c>
       <c r="H127" s="4">
         <v>2</v>
@@ -8019,32 +8020,32 @@
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
       <c r="M127" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127" s="5"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G128" s="3"/>
+        <v>958</v>
+      </c>
+      <c r="F128" s="7"/>
+      <c r="G128" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H128" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
@@ -8057,31 +8058,29 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>52</v>
+        <v>801</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I129" s="6"/>
-      <c r="J129" s="6" t="s">
-        <v>1074</v>
-      </c>
+      <c r="J129" s="6"/>
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
       <c r="M129" s="6" t="b">
@@ -8091,26 +8090,26 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>709</v>
+        <v>52</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>964</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G130" s="3"/>
+        <v>960</v>
+      </c>
+      <c r="F130" s="7"/>
+      <c r="G130" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H130" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
@@ -8123,26 +8122,26 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>541</v>
+        <v>579</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
@@ -8155,29 +8154,31 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>711</v>
+        <v>52</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
+      <c r="J132" s="6" t="s">
+        <v>1073</v>
+      </c>
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
       <c r="M132" s="6" t="b">
@@ -8187,22 +8188,22 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>803</v>
+        <v>708</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="4">
@@ -8213,32 +8214,32 @@
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
       <c r="M133" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N133" s="5"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
@@ -8251,22 +8252,22 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="4">
@@ -8277,28 +8278,28 @@
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
       <c r="M135" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135" s="5"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>714</v>
+        <v>802</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="4">
@@ -8315,26 +8316,26 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>294</v>
+        <v>56</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>971</v>
-      </c>
-      <c r="F137" s="7"/>
-      <c r="G137" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G137" s="3"/>
       <c r="H137" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
@@ -8347,26 +8348,26 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>508</v>
+        <v>585</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>972</v>
-      </c>
-      <c r="F138" s="7"/>
-      <c r="G138" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>968</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G138" s="3"/>
       <c r="H138" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
@@ -8379,26 +8380,26 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>804</v>
+        <v>713</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
@@ -8411,22 +8412,24 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>52</v>
+        <v>714</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="F140" s="7"/>
-      <c r="G140" s="3"/>
+      <c r="G140" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="H140" s="4">
         <v>3</v>
       </c>
@@ -8435,59 +8438,61 @@
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
       <c r="M140" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N140" s="5"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>591</v>
+        <v>507</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>805</v>
+        <v>715</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="F141" s="7"/>
       <c r="G141" s="3" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="H141" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
       <c r="M141" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N141" s="5"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>717</v>
+        <v>803</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>976</v>
-      </c>
-      <c r="F142" s="7"/>
+        <v>972</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="G142" s="3"/>
       <c r="H142" s="4">
         <v>3</v>
@@ -8497,30 +8502,28 @@
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
       <c r="M142" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N142" s="5"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>718</v>
+        <v>52</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="F143" s="7"/>
-      <c r="G143" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="G143" s="3"/>
       <c r="H143" s="4">
         <v>3</v>
       </c>
@@ -8529,124 +8532,124 @@
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
       <c r="M143" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N143" s="5"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>539</v>
+        <v>590</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="F144" s="7"/>
       <c r="G144" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="H144" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N144" s="5"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F145" s="7"/>
-      <c r="G145" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="G145" s="3"/>
       <c r="H145" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N145" s="5"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="F146" s="7"/>
-      <c r="G146" s="3"/>
+      <c r="G146" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H146" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N146" s="5"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>595</v>
+        <v>538</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>52</v>
+        <v>805</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>981</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" s="3"/>
+        <v>977</v>
+      </c>
+      <c r="F147" s="7"/>
+      <c r="G147" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H147" s="4">
         <v>1</v>
       </c>
@@ -8655,32 +8658,32 @@
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
       <c r="M147" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N147" s="5"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>596</v>
+        <v>559</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>807</v>
+        <v>718</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="F148" s="7"/>
       <c r="G148" s="3" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="H148" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
@@ -8693,97 +8696,91 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>983</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>979</v>
+      </c>
+      <c r="F149" s="7"/>
       <c r="G149" s="3"/>
       <c r="H149" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I149" s="6"/>
-      <c r="J149" s="6" t="s">
-        <v>1073</v>
-      </c>
+      <c r="J149" s="6"/>
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
       <c r="M149" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N149" s="5"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>721</v>
+        <v>52</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>984</v>
-      </c>
-      <c r="F150" s="7"/>
-      <c r="G150" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>980</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G150" s="3"/>
       <c r="H150" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
       <c r="M150" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N150" s="5"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="F151" s="7"/>
       <c r="G151" s="3" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="H151" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I151" s="6"/>
-      <c r="J151" s="6" t="s">
-        <v>1074</v>
-      </c>
+      <c r="J151" s="6"/>
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
       <c r="M151" s="6" t="b">
@@ -8793,56 +8790,60 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>986</v>
-      </c>
-      <c r="F152" s="7"/>
+        <v>982</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G152" s="3"/>
       <c r="H152" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
+      <c r="J152" s="6" t="s">
+        <v>1072</v>
+      </c>
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
       <c r="M152" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N152" s="5"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>987</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G153" s="3"/>
+        <v>983</v>
+      </c>
+      <c r="F153" s="7"/>
+      <c r="G153" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="H153" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
@@ -8855,58 +8856,58 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>52</v>
+        <v>531</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>723</v>
+        <v>807</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>988</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G154" s="3"/>
+        <v>984</v>
+      </c>
+      <c r="F154" s="7"/>
+      <c r="G154" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="H154" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
+      <c r="J154" s="6" t="s">
+        <v>1073</v>
+      </c>
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
       <c r="M154" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="N154" s="5" t="s">
-        <v>329</v>
-      </c>
+      <c r="N154" s="5"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="F155" s="7"/>
       <c r="G155" s="3"/>
       <c r="H155" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
@@ -8919,26 +8920,26 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>529</v>
+        <v>599</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>674</v>
+        <v>721</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>990</v>
-      </c>
-      <c r="F156" s="7"/>
-      <c r="G156" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>986</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G156" s="3"/>
       <c r="H156" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
@@ -8951,31 +8952,27 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>670</v>
+        <v>723</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>991</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>988</v>
+      </c>
+      <c r="F157" s="7"/>
       <c r="G157" s="3"/>
       <c r="H157" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" s="6"/>
-      <c r="J157" s="6" t="s">
-        <v>333</v>
-      </c>
+      <c r="J157" s="6"/>
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
       <c r="M157" s="6" t="b">
@@ -8985,31 +8982,29 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>603</v>
+        <v>528</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>725</v>
+        <v>673</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>992</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G158" s="3"/>
+        <v>989</v>
+      </c>
+      <c r="F158" s="7"/>
+      <c r="G158" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="H158" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" s="6"/>
-      <c r="J158" s="6" t="s">
-        <v>1069</v>
-      </c>
+      <c r="J158" s="6"/>
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
       <c r="M158" s="6" t="b">
@@ -9019,61 +9014,65 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>490</v>
+        <v>601</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>809</v>
+        <v>669</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>993</v>
-      </c>
-      <c r="F159" s="7"/>
-      <c r="G159" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>990</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G159" s="3"/>
       <c r="H159" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
+      <c r="J159" s="6" t="s">
+        <v>332</v>
+      </c>
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
       <c r="M159" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N159" s="5"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>994</v>
-      </c>
-      <c r="F160" s="7"/>
-      <c r="G160" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>991</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G160" s="3"/>
       <c r="H160" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
+      <c r="J160" s="6" t="s">
+        <v>1068</v>
+      </c>
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
       <c r="M160" s="6" t="b">
@@ -9083,58 +9082,58 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>605</v>
+        <v>489</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>657</v>
+        <v>808</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>995</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G161" s="3"/>
+        <v>992</v>
+      </c>
+      <c r="F161" s="7"/>
+      <c r="G161" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="H161" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
       <c r="M161" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N161" s="5"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>508</v>
+        <v>603</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="F162" s="7"/>
       <c r="G162" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H162" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
@@ -9147,24 +9146,24 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>728</v>
+        <v>656</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>997</v>
-      </c>
-      <c r="F163" s="7"/>
-      <c r="G163" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>994</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G163" s="3"/>
       <c r="H163" s="4">
         <v>1</v>
       </c>
@@ -9179,95 +9178,93 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>607</v>
+        <v>507</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>810</v>
+        <v>726</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>998</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G164" s="3"/>
+        <v>995</v>
+      </c>
+      <c r="F164" s="7"/>
+      <c r="G164" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H164" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
       <c r="M164" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N164" s="5"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>544</v>
+        <v>605</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>52</v>
+        <v>727</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F165" s="7"/>
       <c r="G165" s="3" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="H165" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
       <c r="M165" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N165" s="5"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>729</v>
+        <v>809</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F166" s="7"/>
-      <c r="G166" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>997</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G166" s="3"/>
       <c r="H166" s="4">
         <v>3</v>
       </c>
       <c r="I166" s="6"/>
-      <c r="J166" s="6" t="s">
-        <v>134</v>
-      </c>
+      <c r="J166" s="6"/>
       <c r="K166" s="6"/>
       <c r="L166" s="6"/>
       <c r="M166" s="6" t="b">
@@ -9277,24 +9274,24 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>730</v>
+        <v>52</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G167" s="3"/>
+        <v>998</v>
+      </c>
+      <c r="F167" s="7"/>
+      <c r="G167" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="H167" s="4">
         <v>5</v>
       </c>
@@ -9309,58 +9306,60 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>499</v>
+        <v>607</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G168" s="3"/>
+        <v>999</v>
+      </c>
+      <c r="F168" s="7"/>
+      <c r="G168" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="H168" s="4">
         <v>3</v>
       </c>
       <c r="I168" s="6"/>
-      <c r="J168" s="6"/>
+      <c r="J168" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
       <c r="M168" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N168" s="5"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>811</v>
+        <v>729</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F169" s="7"/>
-      <c r="G169" s="3" t="s">
-        <v>360</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G169" s="3"/>
       <c r="H169" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
@@ -9373,26 +9372,26 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>609</v>
+        <v>498</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>812</v>
+        <v>730</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
@@ -9405,88 +9404,88 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>516</v>
+        <v>609</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>732</v>
+        <v>810</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F171" s="7"/>
       <c r="G171" s="3" t="s">
-        <v>16</v>
+        <v>359</v>
       </c>
       <c r="H171" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
       <c r="L171" s="6"/>
       <c r="M171" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N171" s="5"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F172" s="7"/>
-      <c r="G172" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G172" s="3"/>
       <c r="H172" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
       <c r="K172" s="6"/>
       <c r="L172" s="6"/>
       <c r="M172" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N172" s="5"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>611</v>
+        <v>515</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>814</v>
+        <v>731</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G173" s="3"/>
+        <v>1004</v>
+      </c>
+      <c r="F173" s="7"/>
+      <c r="G173" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H173" s="4">
         <v>1</v>
       </c>
@@ -9501,31 +9500,29 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>52</v>
+        <v>812</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="F174" s="7"/>
       <c r="G174" s="3" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="H174" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I174" s="6"/>
-      <c r="J174" s="6" t="s">
-        <v>1072</v>
-      </c>
+      <c r="J174" s="6"/>
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
       <c r="M174" s="6" t="b">
@@ -9535,26 +9532,26 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
@@ -9563,35 +9560,35 @@
       <c r="M175" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N175" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="N175" s="5"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>816</v>
+        <v>52</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="F176" s="7"/>
       <c r="G176" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H176" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
+      <c r="J176" s="6" t="s">
+        <v>1071</v>
+      </c>
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
       <c r="M176" s="6" t="b">
@@ -9601,225 +9598,225 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>733</v>
+        <v>815</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F177" s="7"/>
       <c r="G177" s="3" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="H177" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
       <c r="M177" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N177" s="5"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F178" s="7"/>
       <c r="G178" s="3" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="H178" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
       <c r="M178" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N178" s="5"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>525</v>
+        <v>615</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>817</v>
+        <v>733</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G179" s="3"/>
+        <v>1011</v>
+      </c>
+      <c r="F179" s="7"/>
+      <c r="G179" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="H179" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
       <c r="M179" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N179" s="5"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>735</v>
+        <v>816</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F180" s="7"/>
-      <c r="G180" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>1012</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G180" s="3"/>
       <c r="H180" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I180" s="6"/>
-      <c r="J180" s="6" t="s">
-        <v>1077</v>
-      </c>
+      <c r="J180" s="6"/>
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
       <c r="M180" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N180" s="5"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F181" s="7"/>
       <c r="G181" s="3" t="s">
-        <v>269</v>
+        <v>59</v>
       </c>
       <c r="H181" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I181" s="6"/>
-      <c r="J181" s="6"/>
+      <c r="J181" s="6" t="s">
+        <v>1076</v>
+      </c>
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
       <c r="M181" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N181" s="5"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>615</v>
+        <v>515</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F182" s="7"/>
       <c r="G182" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H182" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" s="6"/>
-      <c r="J182" s="6" t="s">
-        <v>1077</v>
-      </c>
+      <c r="J182" s="6"/>
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
       <c r="M182" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N182" s="5"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>518</v>
+        <v>614</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F183" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F183" s="7"/>
+      <c r="G183" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H183" s="4">
         <v>2</v>
       </c>
-      <c r="G183" s="3"/>
-      <c r="H183" s="4">
-        <v>3</v>
-      </c>
       <c r="I183" s="6"/>
-      <c r="J183" s="6"/>
+      <c r="J183" s="6" t="s">
+        <v>1076</v>
+      </c>
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
       <c r="M183" s="6" t="b">
@@ -9829,26 +9826,26 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>617</v>
+        <v>517</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>52</v>
+        <v>737</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F184" s="7"/>
-      <c r="G184" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>1016</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G184" s="3"/>
       <c r="H184" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
@@ -9861,122 +9858,122 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>739</v>
+        <v>52</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F185" s="7"/>
       <c r="G185" s="3" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="H185" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
       <c r="M185" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N185" s="5"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>674</v>
+        <v>738</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G186" s="3"/>
+        <v>1018</v>
+      </c>
+      <c r="F186" s="7"/>
+      <c r="G186" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H186" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
       <c r="M186" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N186" s="5"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>52</v>
+        <v>673</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F187" s="7"/>
-      <c r="G187" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>1019</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G187" s="3"/>
       <c r="H187" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
       <c r="M187" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N187" s="5"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>486</v>
+        <v>619</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>818</v>
+        <v>52</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G188" s="3"/>
+        <v>1020</v>
+      </c>
+      <c r="F188" s="7"/>
+      <c r="G188" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H188" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
@@ -9989,31 +9986,29 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>621</v>
+        <v>485</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>740</v>
+        <v>817</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F189" s="7"/>
-      <c r="G189" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>1021</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G189" s="3"/>
       <c r="H189" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I189" s="6"/>
-      <c r="J189" s="6" t="s">
-        <v>1075</v>
-      </c>
+      <c r="J189" s="6"/>
       <c r="K189" s="6"/>
       <c r="L189" s="6"/>
       <c r="M189" s="6" t="b">
@@ -10023,29 +10018,31 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>525</v>
+        <v>620</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>52</v>
+        <v>739</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F190" s="7"/>
       <c r="G190" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H190" s="4">
         <v>1</v>
       </c>
       <c r="I190" s="6"/>
-      <c r="J190" s="6"/>
+      <c r="J190" s="6" t="s">
+        <v>1074</v>
+      </c>
       <c r="K190" s="6"/>
       <c r="L190" s="6"/>
       <c r="M190" s="6" t="b">
@@ -10055,26 +10052,26 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>741</v>
+        <v>52</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F191" s="7"/>
       <c r="G191" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H191" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
@@ -10087,56 +10084,58 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>622</v>
+        <v>492</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>819</v>
+        <v>740</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F192" s="7"/>
       <c r="G192" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H192" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
       <c r="M192" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N192" s="5"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>742</v>
+        <v>818</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F193" s="7"/>
-      <c r="G193" s="3"/>
+      <c r="G193" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H193" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
@@ -10149,23 +10148,21 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>485</v>
+        <v>622</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>681</v>
+        <v>741</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>1026</v>
+      </c>
+      <c r="F194" s="7"/>
       <c r="G194" s="3"/>
       <c r="H194" s="4">
         <v>1</v>
@@ -10181,31 +10178,29 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>624</v>
+        <v>484</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>743</v>
+        <v>680</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G195" s="3"/>
       <c r="H195" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I195" s="6"/>
-      <c r="J195" s="6" t="s">
-        <v>1073</v>
-      </c>
+      <c r="J195" s="6"/>
       <c r="K195" s="6"/>
       <c r="L195" s="6"/>
       <c r="M195" s="6" t="b">
@@ -10215,29 +10210,31 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>544</v>
+        <v>623</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>653</v>
+        <v>742</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="4">
         <v>5</v>
       </c>
       <c r="I196" s="6"/>
-      <c r="J196" s="6"/>
+      <c r="J196" s="6" t="s">
+        <v>1072</v>
+      </c>
       <c r="K196" s="6"/>
       <c r="L196" s="6"/>
       <c r="M196" s="6" t="b">
@@ -10247,26 +10244,26 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>625</v>
+        <v>543</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>744</v>
+        <v>652</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F197" s="7"/>
-      <c r="G197" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>1029</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G197" s="3"/>
       <c r="H197" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
@@ -10279,58 +10276,58 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>820</v>
+        <v>743</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G198" s="3"/>
+        <v>1030</v>
+      </c>
+      <c r="F198" s="7"/>
+      <c r="G198" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H198" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
       <c r="K198" s="6"/>
       <c r="L198" s="6"/>
       <c r="M198" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N198" s="5"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>745</v>
+        <v>819</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
@@ -10343,63 +10340,63 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>505</v>
+        <v>626</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F200" s="7"/>
-      <c r="G200" s="3" t="s">
-        <v>360</v>
-      </c>
+        <v>1032</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G200" s="3"/>
       <c r="H200" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I200" s="4"/>
-      <c r="J200" s="4" t="s">
-        <v>1073</v>
-      </c>
+      <c r="J200" s="4"/>
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
       <c r="M200" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N200" s="5"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>628</v>
+        <v>504</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F201" s="7"/>
       <c r="G201" s="3" t="s">
-        <v>8</v>
+        <v>359</v>
       </c>
       <c r="H201" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I201" s="4"/>
-      <c r="J201" s="4"/>
+      <c r="J201" s="4" t="s">
+        <v>1072</v>
+      </c>
       <c r="K201" s="4"/>
       <c r="L201" s="4"/>
       <c r="M201" s="6" t="b">
@@ -10409,24 +10406,24 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>490</v>
+        <v>627</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>702</v>
+        <v>734</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G202" s="3"/>
+        <v>1034</v>
+      </c>
+      <c r="F202" s="7"/>
+      <c r="G202" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H202" s="4">
         <v>4</v>
       </c>
@@ -10435,32 +10432,32 @@
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
       <c r="M202" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N202" s="5"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>629</v>
+        <v>489</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>730</v>
+        <v>701</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
@@ -10469,29 +10466,27 @@
       <c r="M203" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N203" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="N203" s="5"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="C204" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F204" s="7"/>
       <c r="G204" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H204" s="4">
         <v>4</v>
@@ -10507,19 +10502,19 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="C205" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="3" t="s">
@@ -10539,30 +10534,30 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="C206" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F206" s="7"/>
       <c r="G206" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H206" s="4">
         <v>5</v>
       </c>
       <c r="I206" s="4"/>
       <c r="J206" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K206" s="4"/>
       <c r="L206" s="4"/>
@@ -10573,19 +10568,19 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="C207" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>56</v>
@@ -10605,19 +10600,19 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="C208" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>56</v>
@@ -10637,19 +10632,19 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="C209" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F209" s="7"/>
       <c r="G209" s="3" t="s">
@@ -10669,19 +10664,19 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="C210" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F210" s="7"/>
       <c r="G210" s="3" t="s">
@@ -10701,19 +10696,19 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="C211" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>41</v>
@@ -10733,19 +10728,19 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="C212" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F212" s="7"/>
       <c r="G212" s="3"/>
@@ -10763,23 +10758,23 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="C213" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F213" s="7"/>
       <c r="G213" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H213" s="4">
         <v>5</v>
@@ -10795,22 +10790,22 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>450</v>
-      </c>
       <c r="C214" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G214" s="3"/>
       <c r="H214" s="4">
@@ -10827,22 +10822,22 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="C215" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G215" s="3"/>
       <c r="H215" s="4">
@@ -10859,19 +10854,19 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="C216" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>2</v>
@@ -10891,19 +10886,19 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>456</v>
-      </c>
       <c r="C217" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F217" s="7"/>
       <c r="G217" s="3"/>
@@ -10921,19 +10916,19 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="C218" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="3" t="s">
@@ -10953,19 +10948,19 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="C219" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F219" s="7"/>
       <c r="G219" s="3" t="s">
@@ -10985,19 +10980,19 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="C220" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F220" s="7"/>
       <c r="G220" s="3" t="s">
@@ -11017,19 +11012,19 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>464</v>
-      </c>
       <c r="C221" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F221" s="7"/>
       <c r="G221" s="3" t="s">
@@ -11049,19 +11044,19 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="C222" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F222" s="7"/>
       <c r="G222" s="3" t="s">
@@ -11081,30 +11076,30 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="C223" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H223" s="4">
         <v>5</v>
       </c>
       <c r="I223" s="4"/>
       <c r="J223" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K223" s="4"/>
       <c r="L223" s="4"/>
@@ -11115,19 +11110,19 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="C224" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>41</v>
@@ -11147,19 +11142,19 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="C225" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="3" t="s">
@@ -11179,22 +11174,22 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="C226" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G226" s="3"/>
       <c r="H226" s="4">
@@ -11211,22 +11206,22 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="C227" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G227" s="3"/>
       <c r="H227" s="4">
@@ -11243,23 +11238,23 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="C228" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F228" s="7"/>
       <c r="G228" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H228" s="4">
         <v>2</v>
@@ -11275,23 +11270,23 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>480</v>
-      </c>
       <c r="C229" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F229" s="7"/>
       <c r="G229" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H229" s="4">
         <v>2</v>
